--- a/도서 대여프로젝트/샘플-도서정보(2021-04-29).xlsx
+++ b/도서 대여프로젝트/샘플-도서정보(2021-04-29).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="도서목록" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="709">
   <si>
     <t>다산초당</t>
   </si>
@@ -1060,54 +1060,6 @@
     <t>A0034</t>
   </si>
   <si>
-    <t>A0040</t>
-  </si>
-  <si>
-    <t>A0049</t>
-  </si>
-  <si>
-    <t>A0100</t>
-  </si>
-  <si>
-    <t>A0052</t>
-  </si>
-  <si>
-    <t>A0084</t>
-  </si>
-  <si>
-    <t>A0076</t>
-  </si>
-  <si>
-    <t>A0072</t>
-  </si>
-  <si>
-    <t>A0079</t>
-  </si>
-  <si>
-    <t>A0090</t>
-  </si>
-  <si>
-    <t>A0038</t>
-  </si>
-  <si>
-    <t>A0080</t>
-  </si>
-  <si>
-    <t>A0097</t>
-  </si>
-  <si>
-    <t>A0069</t>
-  </si>
-  <si>
-    <t>A0053</t>
-  </si>
-  <si>
-    <t>A0045</t>
-  </si>
-  <si>
-    <t>A0066</t>
-  </si>
-  <si>
     <t>갈한수</t>
   </si>
   <si>
@@ -2047,88 +1999,218 @@
     <t>경북 구미시 봉곡동 204-1</t>
   </si>
   <si>
-    <t>10/29/2018</t>
-  </si>
-  <si>
-    <t>11/29/2018</t>
-  </si>
-  <si>
-    <t>01/10/2019</t>
-  </si>
-  <si>
-    <t>03/25/2019</t>
-  </si>
-  <si>
-    <t>04/10/2019</t>
-  </si>
-  <si>
-    <t>11/23/2018</t>
-  </si>
-  <si>
-    <t>12/20/2018</t>
-  </si>
-  <si>
-    <t>12/15/2018</t>
-  </si>
-  <si>
-    <t>03/20/2019</t>
-  </si>
-  <si>
-    <t>03/15/2019</t>
-  </si>
-  <si>
-    <t>03/30/2019</t>
-  </si>
-  <si>
-    <t>03/31/2019</t>
-  </si>
-  <si>
-    <t>11/15/2018</t>
-  </si>
-  <si>
-    <t>04/11/2019</t>
-  </si>
-  <si>
-    <t>10/31/2018</t>
-  </si>
-  <si>
-    <t>02/20/2019</t>
-  </si>
-  <si>
-    <t>04/15/2019</t>
-  </si>
-  <si>
-    <t>02/15/2019</t>
-  </si>
-  <si>
-    <t>02/26/2019</t>
-  </si>
-  <si>
-    <t>01/18/2019</t>
-  </si>
-  <si>
-    <t>01/28/2019</t>
-  </si>
-  <si>
-    <t>02/27/2019</t>
-  </si>
-  <si>
-    <t>10/30/2018</t>
-  </si>
-  <si>
-    <t>11/24/2018</t>
-  </si>
-  <si>
-    <t>12/25/2018</t>
-  </si>
-  <si>
-    <t>01/29/2019</t>
-  </si>
-  <si>
     <t>뉴파워 - 새로운 권력의 탄생</t>
   </si>
   <si>
-    <t>01/30/2019</t>
+    <t>'9791162540466</t>
+  </si>
+  <si>
+    <t>'9791188850327</t>
+  </si>
+  <si>
+    <t>'9791162540558</t>
+  </si>
+  <si>
+    <t>'9791162540695</t>
+  </si>
+  <si>
+    <t>'9791188850518</t>
+  </si>
+  <si>
+    <t>'9791188850303</t>
+  </si>
+  <si>
+    <t>'9791188850501</t>
+  </si>
+  <si>
+    <t>'9791188850341</t>
+  </si>
+  <si>
+    <t>'9791162540527</t>
+  </si>
+  <si>
+    <t>'9791162540671</t>
+  </si>
+  <si>
+    <t>'9791188850440</t>
+  </si>
+  <si>
+    <t>'9791162540718</t>
+  </si>
+  <si>
+    <t>'9791162540732</t>
+  </si>
+  <si>
+    <t>'9791188850280</t>
+  </si>
+  <si>
+    <t>'9791188850549</t>
+  </si>
+  <si>
+    <t>'9791188850266</t>
+  </si>
+  <si>
+    <t>'9791186805398</t>
+  </si>
+  <si>
+    <t>'9791162540770</t>
+  </si>
+  <si>
+    <t>'9791162540619</t>
+  </si>
+  <si>
+    <t>'9791162540640</t>
+  </si>
+  <si>
+    <t>'9791162540572</t>
+  </si>
+  <si>
+    <t>'9791188850389</t>
+  </si>
+  <si>
+    <t>'9791188850426</t>
+  </si>
+  <si>
+    <t>'9791188850471</t>
+  </si>
+  <si>
+    <t>'9791162540480</t>
+  </si>
+  <si>
+    <t>'9791162540503</t>
+  </si>
+  <si>
+    <t>'9791188850365</t>
+  </si>
+  <si>
+    <t>'9791188850402</t>
+  </si>
+  <si>
+    <t>'9791162540756</t>
+  </si>
+  <si>
+    <t>'9791162540596</t>
+  </si>
+  <si>
+    <t>ISBN</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서명</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>출판사명</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>출판사대표</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>저자</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>저자연락처</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>출판일</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-04-15</t>
+  </si>
+  <si>
+    <t>2019-04-11</t>
+  </si>
+  <si>
+    <t>2019-04-10</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2019-03-30</t>
+  </si>
+  <si>
+    <t>2019-03-25</t>
+  </si>
+  <si>
+    <t>2019-03-20</t>
+  </si>
+  <si>
+    <t>2019-03-15</t>
+  </si>
+  <si>
+    <t>2019-02-27</t>
+  </si>
+  <si>
+    <t>2019-02-26</t>
+  </si>
+  <si>
+    <t>2019-02-20</t>
+  </si>
+  <si>
+    <t>2019-02-15</t>
+  </si>
+  <si>
+    <t>2019-01-30</t>
+  </si>
+  <si>
+    <t>2019-01-29</t>
+  </si>
+  <si>
+    <t>2019-01-28</t>
+  </si>
+  <si>
+    <t>2019-01-18</t>
+  </si>
+  <si>
+    <t>2019-01-10</t>
+  </si>
+  <si>
+    <t>2018-12-25</t>
+  </si>
+  <si>
+    <t>2018-12-20</t>
+  </si>
+  <si>
+    <t>2018-12-15</t>
+  </si>
+  <si>
+    <t>2018-11-29</t>
+  </si>
+  <si>
+    <t>2018-11-24</t>
+  </si>
+  <si>
+    <t>2018-11-23</t>
+  </si>
+  <si>
+    <t>2018-11-15</t>
+  </si>
+  <si>
+    <t>2018-10-31</t>
+  </si>
+  <si>
+    <t>2018-10-30</t>
+  </si>
+  <si>
+    <t>2018-10-29</t>
+  </si>
+  <si>
+    <t>발행일(문자열)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2838,7 +2920,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3163,22 +3245,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="79.5" style="1" customWidth="1"/>
-    <col min="3" max="4" width="14.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="51.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.5" customHeight="1">
+    <row r="1" spans="1:8" ht="31.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>203</v>
       </c>
@@ -3191,17 +3275,20 @@
       <c r="D1" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="31.5" customHeight="1">
+    <row r="2" spans="1:8" ht="31.5" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>208</v>
       </c>
@@ -3211,20 +3298,24 @@
       <c r="C2" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="E2" s="8">
-        <v>43570</v>
-      </c>
-      <c r="F2" s="9">
+      <c r="D2" s="7" t="str">
+        <f ca="1">"A"&amp;TEXT(RANDBETWEEN(1,34),"0000")</f>
+        <v>A0024</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="G2" s="9">
         <v>272</v>
       </c>
-      <c r="G2" s="10">
+      <c r="H2" s="10">
         <v>15000</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="31.5" customHeight="1">
+    <row r="3" spans="1:8" ht="31.5" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>211</v>
       </c>
@@ -3234,20 +3325,24 @@
       <c r="C3" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="E3" s="8">
-        <v>43566</v>
-      </c>
-      <c r="F3" s="9">
+      <c r="D3" s="7" t="str">
+        <f t="shared" ref="D3:D31" ca="1" si="0">"A"&amp;TEXT(RANDBETWEEN(1,34),"0000")</f>
+        <v>A0009</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>682</v>
+      </c>
+      <c r="G3" s="9">
         <v>132</v>
       </c>
-      <c r="G3" s="10">
+      <c r="H3" s="10">
         <v>13000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="31.5" customHeight="1">
+    <row r="4" spans="1:8" ht="31.5" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>214</v>
       </c>
@@ -3257,20 +3352,24 @@
       <c r="C4" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="E4" s="8">
-        <v>43565</v>
-      </c>
-      <c r="F4" s="9">
+      <c r="D4" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0031</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>683</v>
+      </c>
+      <c r="G4" s="9">
         <v>388</v>
       </c>
-      <c r="G4" s="10">
+      <c r="H4" s="10">
         <v>14000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="31.5" customHeight="1">
+    <row r="5" spans="1:8" ht="31.5" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>217</v>
       </c>
@@ -3280,20 +3379,24 @@
       <c r="C5" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="E5" s="8">
-        <v>43565</v>
-      </c>
-      <c r="F5" s="9">
+      <c r="D5" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0018</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>683</v>
+      </c>
+      <c r="G5" s="9">
         <v>440</v>
       </c>
-      <c r="G5" s="10">
+      <c r="H5" s="10">
         <v>14000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="31.5" customHeight="1">
+    <row r="6" spans="1:8" ht="31.5" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>219</v>
       </c>
@@ -3303,20 +3406,24 @@
       <c r="C6" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="E6" s="8">
-        <v>43565</v>
-      </c>
-      <c r="F6" s="9">
+      <c r="D6" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0022</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>683</v>
+      </c>
+      <c r="G6" s="9">
         <v>280</v>
       </c>
-      <c r="G6" s="10">
+      <c r="H6" s="10">
         <v>15000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="31.5" customHeight="1">
+    <row r="7" spans="1:8" ht="31.5" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>222</v>
       </c>
@@ -3326,20 +3433,24 @@
       <c r="C7" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="E7" s="8">
-        <v>43565</v>
-      </c>
-      <c r="F7" s="9">
+      <c r="D7" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0003</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>683</v>
+      </c>
+      <c r="G7" s="9">
         <v>368</v>
       </c>
-      <c r="G7" s="10">
+      <c r="H7" s="10">
         <v>25000</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="31.5" customHeight="1">
+    <row r="8" spans="1:8" ht="31.5" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>225</v>
       </c>
@@ -3349,20 +3460,24 @@
       <c r="C8" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="E8" s="8">
-        <v>43555</v>
-      </c>
-      <c r="F8" s="9">
+      <c r="D8" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0017</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="G8" s="9">
         <v>536</v>
       </c>
-      <c r="G8" s="10">
+      <c r="H8" s="10">
         <v>22000</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="31.5" customHeight="1">
+    <row r="9" spans="1:8" ht="31.5" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>227</v>
       </c>
@@ -3372,20 +3487,24 @@
       <c r="C9" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="E9" s="8">
-        <v>43554</v>
-      </c>
-      <c r="F9" s="9">
+      <c r="D9" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0010</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="G9" s="9">
         <v>232</v>
       </c>
-      <c r="G9" s="10">
+      <c r="H9" s="10">
         <v>13000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="31.5" customHeight="1">
+    <row r="10" spans="1:8" ht="31.5" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>230</v>
       </c>
@@ -3395,20 +3514,24 @@
       <c r="C10" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="E10" s="8">
-        <v>43549</v>
-      </c>
-      <c r="F10" s="9">
+      <c r="D10" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0018</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="G10" s="9">
         <v>264</v>
       </c>
-      <c r="G10" s="10">
+      <c r="H10" s="10">
         <v>15000</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="31.5" customHeight="1">
+    <row r="11" spans="1:8" ht="31.5" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>232</v>
       </c>
@@ -3418,20 +3541,24 @@
       <c r="C11" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="E11" s="8">
-        <v>43544</v>
-      </c>
-      <c r="F11" s="9">
+      <c r="D11" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0008</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="G11" s="9">
         <v>500</v>
       </c>
-      <c r="G11" s="10">
+      <c r="H11" s="10">
         <v>13800</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="31.5" customHeight="1">
+    <row r="12" spans="1:8" ht="31.5" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>235</v>
       </c>
@@ -3441,20 +3568,24 @@
       <c r="C12" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="E12" s="8">
-        <v>43539</v>
-      </c>
-      <c r="F12" s="9">
+      <c r="D12" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0002</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="G12" s="9">
         <v>248</v>
       </c>
-      <c r="G12" s="10">
+      <c r="H12" s="10">
         <v>13800</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="31.5" customHeight="1">
+    <row r="13" spans="1:8" ht="31.5" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>238</v>
       </c>
@@ -3464,20 +3595,24 @@
       <c r="C13" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="E13" s="8">
-        <v>43523</v>
-      </c>
-      <c r="F13" s="9">
+      <c r="D13" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0027</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>689</v>
+      </c>
+      <c r="G13" s="9">
         <v>376</v>
       </c>
-      <c r="G13" s="10">
+      <c r="H13" s="10">
         <v>16800</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="31.5" customHeight="1">
+    <row r="14" spans="1:8" ht="31.5" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>241</v>
       </c>
@@ -3487,20 +3622,24 @@
       <c r="C14" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="E14" s="8">
-        <v>43522</v>
-      </c>
-      <c r="F14" s="9">
+      <c r="D14" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0001</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="G14" s="9">
         <v>360</v>
       </c>
-      <c r="G14" s="10">
+      <c r="H14" s="10">
         <v>16000</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="31.5" customHeight="1">
+    <row r="15" spans="1:8" ht="31.5" customHeight="1">
       <c r="A15" s="6" t="s">
         <v>244</v>
       </c>
@@ -3510,20 +3649,24 @@
       <c r="C15" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="E15" s="8">
-        <v>43516</v>
-      </c>
-      <c r="F15" s="9">
+      <c r="D15" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0019</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="G15" s="9">
         <v>416</v>
       </c>
-      <c r="G15" s="10">
+      <c r="H15" s="10">
         <v>16000</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="31.5" customHeight="1">
+    <row r="16" spans="1:8" ht="31.5" customHeight="1">
       <c r="A16" s="6" t="s">
         <v>247</v>
       </c>
@@ -3533,20 +3676,24 @@
       <c r="C16" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="E16" s="8">
-        <v>43511</v>
-      </c>
-      <c r="F16" s="9">
+      <c r="D16" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0027</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="G16" s="9">
         <v>252</v>
       </c>
-      <c r="G16" s="10">
+      <c r="H16" s="10">
         <v>14000</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="31.5" customHeight="1">
+    <row r="17" spans="1:8" ht="31.5" customHeight="1">
       <c r="A17" s="6" t="s">
         <v>250</v>
       </c>
@@ -3556,20 +3703,24 @@
       <c r="C17" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="E17" s="8">
-        <v>43495</v>
-      </c>
-      <c r="F17" s="9">
+      <c r="D17" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0022</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>693</v>
+      </c>
+      <c r="G17" s="9">
         <v>456</v>
       </c>
-      <c r="G17" s="10">
+      <c r="H17" s="10">
         <v>18000</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="31.5" customHeight="1">
+    <row r="18" spans="1:8" ht="31.5" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>252</v>
       </c>
@@ -3579,20 +3730,24 @@
       <c r="C18" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="E18" s="8">
-        <v>43494</v>
-      </c>
-      <c r="F18" s="9">
+      <c r="D18" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0024</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>694</v>
+      </c>
+      <c r="G18" s="9">
         <v>252</v>
       </c>
-      <c r="G18" s="10">
+      <c r="H18" s="10">
         <v>13500</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="31.5" customHeight="1">
+    <row r="19" spans="1:8" ht="31.5" customHeight="1">
       <c r="A19" s="6" t="s">
         <v>255</v>
       </c>
@@ -3602,20 +3757,24 @@
       <c r="C19" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="E19" s="8">
-        <v>43493</v>
-      </c>
-      <c r="F19" s="9">
+      <c r="D19" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0019</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>695</v>
+      </c>
+      <c r="G19" s="9">
         <v>240</v>
       </c>
-      <c r="G19" s="10">
+      <c r="H19" s="10">
         <v>13800</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="31.5" customHeight="1">
+    <row r="20" spans="1:8" ht="31.5" customHeight="1">
       <c r="A20" s="6" t="s">
         <v>258</v>
       </c>
@@ -3625,20 +3784,24 @@
       <c r="C20" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="E20" s="8">
-        <v>43483</v>
-      </c>
-      <c r="F20" s="9">
+      <c r="D20" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0021</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="G20" s="9">
         <v>280</v>
       </c>
-      <c r="G20" s="10">
+      <c r="H20" s="10">
         <v>15000</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="31.5" customHeight="1">
+    <row r="21" spans="1:8" ht="31.5" customHeight="1">
       <c r="A21" s="6" t="s">
         <v>261</v>
       </c>
@@ -3648,20 +3811,24 @@
       <c r="C21" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="E21" s="8">
-        <v>43475</v>
-      </c>
-      <c r="F21" s="9">
+      <c r="D21" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0034</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>697</v>
+      </c>
+      <c r="G21" s="9">
         <v>316</v>
       </c>
-      <c r="G21" s="10">
+      <c r="H21" s="10">
         <v>15800</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="31.5" customHeight="1">
+    <row r="22" spans="1:8" ht="31.5" customHeight="1">
       <c r="A22" s="6" t="s">
         <v>264</v>
       </c>
@@ -3671,20 +3838,24 @@
       <c r="C22" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="E22" s="8">
-        <v>43459</v>
-      </c>
-      <c r="F22" s="9">
+      <c r="D22" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0032</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="G22" s="9">
         <v>256</v>
       </c>
-      <c r="G22" s="10">
+      <c r="H22" s="10">
         <v>13500</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="31.5" customHeight="1">
+    <row r="23" spans="1:8" ht="31.5" customHeight="1">
       <c r="A23" s="6" t="s">
         <v>267</v>
       </c>
@@ -3694,20 +3865,24 @@
       <c r="C23" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="E23" s="8">
-        <v>43454</v>
-      </c>
-      <c r="F23" s="9">
+      <c r="D23" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0012</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="G23" s="9">
         <v>272</v>
       </c>
-      <c r="G23" s="10">
+      <c r="H23" s="10">
         <v>14800</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="31.5" customHeight="1">
+    <row r="24" spans="1:8" ht="31.5" customHeight="1">
       <c r="A24" s="6" t="s">
         <v>270</v>
       </c>
@@ -3717,20 +3892,24 @@
       <c r="C24" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="E24" s="8">
-        <v>43449</v>
-      </c>
-      <c r="F24" s="9">
+      <c r="D24" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0006</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="G24" s="9">
         <v>232</v>
       </c>
-      <c r="G24" s="10">
+      <c r="H24" s="10">
         <v>13500</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="31.5" customHeight="1">
+    <row r="25" spans="1:8" ht="31.5" customHeight="1">
       <c r="A25" s="6" t="s">
         <v>273</v>
       </c>
@@ -3740,20 +3919,24 @@
       <c r="C25" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="E25" s="8">
-        <v>43433</v>
-      </c>
-      <c r="F25" s="9">
+      <c r="D25" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0010</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>701</v>
+      </c>
+      <c r="G25" s="9">
         <v>236</v>
       </c>
-      <c r="G25" s="10">
+      <c r="H25" s="10">
         <v>14000</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="31.5" customHeight="1">
+    <row r="26" spans="1:8" ht="31.5" customHeight="1">
       <c r="A26" s="6" t="s">
         <v>276</v>
       </c>
@@ -3763,20 +3946,24 @@
       <c r="C26" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="E26" s="8">
-        <v>43428</v>
-      </c>
-      <c r="F26" s="9">
+      <c r="D26" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0015</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>702</v>
+      </c>
+      <c r="G26" s="9">
         <v>376</v>
       </c>
-      <c r="G26" s="10">
+      <c r="H26" s="10">
         <v>16500</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="31.5" customHeight="1">
+    <row r="27" spans="1:8" ht="31.5" customHeight="1">
       <c r="A27" s="6" t="s">
         <v>278</v>
       </c>
@@ -3786,20 +3973,24 @@
       <c r="C27" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="E27" s="8">
-        <v>43427</v>
-      </c>
-      <c r="F27" s="9">
+      <c r="D27" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0029</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>703</v>
+      </c>
+      <c r="G27" s="9">
         <v>228</v>
       </c>
-      <c r="G27" s="10">
+      <c r="H27" s="10">
         <v>13500</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="31.5" customHeight="1">
+    <row r="28" spans="1:8" ht="31.5" customHeight="1">
       <c r="A28" s="6" t="s">
         <v>281</v>
       </c>
@@ -3809,20 +4000,24 @@
       <c r="C28" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="E28" s="8">
-        <v>43419</v>
-      </c>
-      <c r="F28" s="9">
+      <c r="D28" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0031</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="G28" s="9">
         <v>232</v>
       </c>
-      <c r="G28" s="10">
+      <c r="H28" s="10">
         <v>14800</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="31.5" customHeight="1">
+    <row r="29" spans="1:8" ht="31.5" customHeight="1">
       <c r="A29" s="6" t="s">
         <v>284</v>
       </c>
@@ -3832,20 +4027,24 @@
       <c r="C29" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="E29" s="8">
-        <v>43404</v>
-      </c>
-      <c r="F29" s="9">
+      <c r="D29" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0024</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>705</v>
+      </c>
+      <c r="G29" s="9">
         <v>240</v>
       </c>
-      <c r="G29" s="10">
+      <c r="H29" s="10">
         <v>14000</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="31.5" customHeight="1">
+    <row r="30" spans="1:8" ht="31.5" customHeight="1">
       <c r="A30" s="6" t="s">
         <v>287</v>
       </c>
@@ -3855,20 +4054,24 @@
       <c r="C30" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="E30" s="8">
-        <v>43403</v>
-      </c>
-      <c r="F30" s="9">
+      <c r="D30" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0013</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="G30" s="9">
         <v>464</v>
       </c>
-      <c r="G30" s="10">
+      <c r="H30" s="10">
         <v>20000</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="31.5" customHeight="1">
+    <row r="31" spans="1:8" ht="31.5" customHeight="1">
       <c r="A31" s="6" t="s">
         <v>290</v>
       </c>
@@ -3878,16 +4081,20 @@
       <c r="C31" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="E31" s="8">
-        <v>43402</v>
-      </c>
-      <c r="F31" s="9">
+      <c r="D31" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0021</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>707</v>
+      </c>
+      <c r="G31" s="9">
         <v>436</v>
       </c>
-      <c r="G31" s="10">
+      <c r="H31" s="10">
         <v>18000</v>
       </c>
     </row>
@@ -3902,8 +4109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C101"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3940,13 +4147,13 @@
         <v>25</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="26.25" customHeight="1">
@@ -3957,13 +4164,13 @@
         <v>58</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="26.25" customHeight="1">
@@ -3974,13 +4181,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="26.25" customHeight="1">
@@ -3991,13 +4198,13 @@
         <v>65</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="26.25" customHeight="1">
@@ -4008,13 +4215,13 @@
         <v>72</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="26.25" customHeight="1">
@@ -4025,13 +4232,13 @@
         <v>42</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="26.25" customHeight="1">
@@ -4042,13 +4249,13 @@
         <v>67</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="26.25" customHeight="1">
@@ -4059,13 +4266,13 @@
         <v>33</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="26.25" customHeight="1">
@@ -4076,13 +4283,13 @@
         <v>59</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="26.25" customHeight="1">
@@ -4093,13 +4300,13 @@
         <v>19</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="26.25" customHeight="1">
@@ -4110,13 +4317,13 @@
         <v>88</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="26.25" customHeight="1">
@@ -4127,13 +4334,13 @@
         <v>74</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="26.25" customHeight="1">
@@ -4144,13 +4351,13 @@
         <v>26</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="26.25" customHeight="1">
@@ -4161,13 +4368,13 @@
         <v>13</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="26.25" customHeight="1">
@@ -4178,13 +4385,13 @@
         <v>18</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="26.25" customHeight="1">
@@ -4195,13 +4402,13 @@
         <v>94</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="26.25" customHeight="1">
@@ -4212,13 +4419,13 @@
         <v>80</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="26.25" customHeight="1">
@@ -4229,13 +4436,13 @@
         <v>95</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="26.25" customHeight="1">
@@ -4246,13 +4453,13 @@
         <v>99</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="26.25" customHeight="1">
@@ -4263,13 +4470,13 @@
         <v>20</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="26.25" customHeight="1">
@@ -4280,13 +4487,13 @@
         <v>21</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="26.25" customHeight="1">
@@ -4297,13 +4504,13 @@
         <v>79</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="26.25" customHeight="1">
@@ -4314,13 +4521,13 @@
         <v>3</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="26.25" customHeight="1">
@@ -4331,13 +4538,13 @@
         <v>76</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="26.25" customHeight="1">
@@ -4348,13 +4555,13 @@
         <v>85</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="26.25" customHeight="1">
@@ -4365,13 +4572,13 @@
         <v>75</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="26.25" customHeight="1">
@@ -4382,13 +4589,13 @@
         <v>30</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="26.25" customHeight="1">
@@ -4399,13 +4606,13 @@
         <v>7</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="26.25" customHeight="1">
@@ -4416,13 +4623,13 @@
         <v>87</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="26.25" customHeight="1">
@@ -4433,13 +4640,13 @@
         <v>50</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="26.25" customHeight="1">
@@ -4450,13 +4657,13 @@
         <v>70</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="26.25" customHeight="1">
@@ -4467,13 +4674,13 @@
         <v>10</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="26.25" customHeight="1">
@@ -4484,13 +4691,13 @@
         <v>93</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="26.25" customHeight="1">
@@ -4501,13 +4708,13 @@
         <v>1</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="26.25" customHeight="1">
@@ -4518,13 +4725,13 @@
         <v>44</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="26.25" customHeight="1">
@@ -4535,13 +4742,13 @@
         <v>96</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="26.25" customHeight="1">
@@ -4552,13 +4759,13 @@
         <v>91</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="26.25" customHeight="1">
@@ -4569,13 +4776,13 @@
         <v>36</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="26.25" customHeight="1">
@@ -4586,13 +4793,13 @@
         <v>43</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="26.25" customHeight="1">
@@ -4603,13 +4810,13 @@
         <v>71</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="26.25" customHeight="1">
@@ -4620,13 +4827,13 @@
         <v>52</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="26.25" customHeight="1">
@@ -4637,13 +4844,13 @@
         <v>86</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="26.25" customHeight="1">
@@ -4654,13 +4861,13 @@
         <v>55</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="26.25" customHeight="1">
@@ -4671,13 +4878,13 @@
         <v>92</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="26.25" customHeight="1">
@@ -4688,13 +4895,13 @@
         <v>47</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="26.25" customHeight="1">
@@ -4705,13 +4912,13 @@
         <v>63</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="26.25" customHeight="1">
@@ -4722,13 +4929,13 @@
         <v>97</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="26.25" customHeight="1">
@@ -4739,13 +4946,13 @@
         <v>61</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="26.25" customHeight="1">
@@ -4756,13 +4963,13 @@
         <v>54</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="26.25" customHeight="1">
@@ -4773,13 +4980,13 @@
         <v>49</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="26.25" customHeight="1">
@@ -4790,13 +4997,13 @@
         <v>38</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="26.25" customHeight="1">
@@ -4807,13 +5014,13 @@
         <v>17</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="26.25" customHeight="1">
@@ -4824,13 +5031,13 @@
         <v>66</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="26.25" customHeight="1">
@@ -4841,13 +5048,13 @@
         <v>73</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="26.25" customHeight="1">
@@ -4858,13 +5065,13 @@
         <v>27</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="26.25" customHeight="1">
@@ -4875,13 +5082,13 @@
         <v>98</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="26.25" customHeight="1">
@@ -4892,13 +5099,13 @@
         <v>56</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="26.25" customHeight="1">
@@ -4909,13 +5116,13 @@
         <v>35</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="26.25" customHeight="1">
@@ -4926,13 +5133,13 @@
         <v>24</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="26.25" customHeight="1">
@@ -4943,13 +5150,13 @@
         <v>45</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="26.25" customHeight="1">
@@ -4960,13 +5167,13 @@
         <v>100</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="26.25" customHeight="1">
@@ -4977,13 +5184,13 @@
         <v>78</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="26.25" customHeight="1">
@@ -4994,13 +5201,13 @@
         <v>5</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="26.25" customHeight="1">
@@ -5011,13 +5218,13 @@
         <v>9</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="26.25" customHeight="1">
@@ -5028,13 +5235,13 @@
         <v>46</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="26.25" customHeight="1">
@@ -5045,13 +5252,13 @@
         <v>81</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="26.25" customHeight="1">
@@ -5062,13 +5269,13 @@
         <v>23</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="26.25" customHeight="1">
@@ -5079,13 +5286,13 @@
         <v>84</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="26.25" customHeight="1">
@@ -5096,13 +5303,13 @@
         <v>16</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="26.25" customHeight="1">
@@ -5113,13 +5320,13 @@
         <v>14</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="26.25" customHeight="1">
@@ -5130,13 +5337,13 @@
         <v>22</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="26.25" customHeight="1">
@@ -5147,13 +5354,13 @@
         <v>6</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="26.25" customHeight="1">
@@ -5164,13 +5371,13 @@
         <v>4</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="26.25" customHeight="1">
@@ -5181,13 +5388,13 @@
         <v>0</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>578</v>
+        <v>562</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="26.25" customHeight="1">
@@ -5198,13 +5405,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="26.25" customHeight="1">
@@ -5215,13 +5422,13 @@
         <v>82</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="26.25" customHeight="1">
@@ -5232,13 +5439,13 @@
         <v>83</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="26.25" customHeight="1">
@@ -5249,13 +5456,13 @@
         <v>51</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="26.25" customHeight="1">
@@ -5266,13 +5473,13 @@
         <v>68</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="26.25" customHeight="1">
@@ -5283,13 +5490,13 @@
         <v>53</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="26.25" customHeight="1">
@@ -5300,13 +5507,13 @@
         <v>69</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="26.25" customHeight="1">
@@ -5317,13 +5524,13 @@
         <v>32</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="26.25" customHeight="1">
@@ -5334,13 +5541,13 @@
         <v>34</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="26.25" customHeight="1">
@@ -5351,13 +5558,13 @@
         <v>31</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="26.25" customHeight="1">
@@ -5368,13 +5575,13 @@
         <v>89</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>611</v>
+        <v>595</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="26.25" customHeight="1">
@@ -5385,13 +5592,13 @@
         <v>41</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>614</v>
+        <v>598</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="26.25" customHeight="1">
@@ -5402,13 +5609,13 @@
         <v>39</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>617</v>
+        <v>601</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="26.25" customHeight="1">
@@ -5419,13 +5626,13 @@
         <v>28</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>620</v>
+        <v>604</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="26.25" customHeight="1">
@@ -5436,13 +5643,13 @@
         <v>11</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="26.25" customHeight="1">
@@ -5453,13 +5660,13 @@
         <v>90</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="26.25" customHeight="1">
@@ -5470,13 +5677,13 @@
         <v>12</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>629</v>
+        <v>613</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="26.25" customHeight="1">
@@ -5487,13 +5694,13 @@
         <v>48</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>632</v>
+        <v>616</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="26.25" customHeight="1">
@@ -5504,13 +5711,13 @@
         <v>29</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="26.25" customHeight="1">
@@ -5521,13 +5728,13 @@
         <v>77</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="26.25" customHeight="1">
@@ -5538,13 +5745,13 @@
         <v>15</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>641</v>
+        <v>625</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="26.25" customHeight="1">
@@ -5555,13 +5762,13 @@
         <v>37</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="D97" s="14" t="s">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>644</v>
+        <v>628</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="26.25" customHeight="1">
@@ -5572,13 +5779,13 @@
         <v>60</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>646</v>
+        <v>630</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>647</v>
+        <v>631</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="26.25" customHeight="1">
@@ -5589,13 +5796,13 @@
         <v>62</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>650</v>
+        <v>634</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="26.25" customHeight="1">
@@ -5606,13 +5813,13 @@
         <v>57</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="26.25" customHeight="1">
@@ -5623,13 +5830,13 @@
         <v>40</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>654</v>
+        <v>638</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>656</v>
+        <v>640</v>
       </c>
     </row>
   </sheetData>
@@ -5647,7 +5854,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5680,10 +5887,10 @@
         <v>283</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="22.5" customHeight="1">
@@ -5694,10 +5901,10 @@
         <v>240</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="22.5" customHeight="1">
@@ -5708,10 +5915,10 @@
         <v>297</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="22.5" customHeight="1">
@@ -5722,10 +5929,10 @@
         <v>237</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="22.5" customHeight="1">
@@ -5736,10 +5943,10 @@
         <v>216</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="22.5" customHeight="1">
@@ -5750,10 +5957,10 @@
         <v>260</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="22.5" customHeight="1">
@@ -5764,10 +5971,10 @@
         <v>213</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="22.5" customHeight="1">
@@ -5778,10 +5985,10 @@
         <v>286</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="22.5" customHeight="1">
@@ -5792,10 +5999,10 @@
         <v>246</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="22.5" customHeight="1">
@@ -5806,10 +6013,10 @@
         <v>266</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="22.5" customHeight="1">
@@ -5820,10 +6027,10 @@
         <v>269</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="22.5" customHeight="1">
@@ -5834,10 +6041,10 @@
         <v>298</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="22.5" customHeight="1">
@@ -5848,10 +6055,10 @@
         <v>254</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="22.5" customHeight="1">
@@ -5862,10 +6069,10 @@
         <v>243</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="22.5" customHeight="1">
@@ -5876,10 +6083,10 @@
         <v>263</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="22.5" customHeight="1">
@@ -5890,10 +6097,10 @@
         <v>280</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="22.5" customHeight="1">
@@ -5904,10 +6111,10 @@
         <v>224</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="22.5" customHeight="1">
@@ -5918,10 +6125,10 @@
         <v>210</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="22.5" customHeight="1">
@@ -5932,10 +6139,10 @@
         <v>275</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="22.5" customHeight="1">
@@ -5946,10 +6153,10 @@
         <v>249</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="22.5" customHeight="1">
@@ -5960,10 +6167,10 @@
         <v>257</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="22.5" customHeight="1">
@@ -5974,10 +6181,10 @@
         <v>221</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="22.5" customHeight="1">
@@ -5988,10 +6195,10 @@
         <v>292</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1">
@@ -6002,10 +6209,10 @@
         <v>289</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="22.5" customHeight="1">
@@ -6016,10 +6223,10 @@
         <v>299</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="22.5" customHeight="1">
@@ -6030,10 +6237,10 @@
         <v>216</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="22.5" customHeight="1">
@@ -6044,10 +6251,10 @@
         <v>300</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="22.5" customHeight="1">
@@ -6058,10 +6265,10 @@
         <v>272</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="22.5" customHeight="1">
@@ -6072,10 +6279,10 @@
         <v>234</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="22.5" customHeight="1">
@@ -6086,10 +6293,10 @@
         <v>229</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="22.5" customHeight="1">
@@ -6100,10 +6307,10 @@
         <v>301</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="22.5" customHeight="1">
@@ -6114,10 +6321,10 @@
         <v>302</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="22.5" customHeight="1">
@@ -6128,10 +6335,10 @@
         <v>303</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="22.5" customHeight="1">
@@ -6142,10 +6349,10 @@
         <v>304</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -6157,25 +6364,55 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H31"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="21" style="15" customWidth="1"/>
-    <col min="2" max="2" width="44.125" customWidth="1"/>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="5" max="5" width="20.25" customWidth="1"/>
-    <col min="6" max="6" width="19.75" customWidth="1"/>
-    <col min="7" max="7" width="14.75" customWidth="1"/>
+    <col min="1" max="1" width="19.25" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="3" max="3" width="18.25" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="5" max="5" width="18.875" customWidth="1"/>
+    <col min="6" max="6" width="19.875" customWidth="1"/>
+    <col min="7" max="7" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
-      <c r="A2" s="15">
-        <v>9791162540466</v>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D1" t="s">
+        <v>675</v>
+      </c>
+      <c r="E1" t="s">
+        <v>676</v>
+      </c>
+      <c r="F1" t="s">
+        <v>677</v>
+      </c>
+      <c r="G1" t="s">
+        <v>678</v>
+      </c>
+      <c r="H1" t="s">
+        <v>679</v>
+      </c>
+      <c r="I1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>642</v>
       </c>
       <c r="B2" t="s">
         <v>291</v>
@@ -6184,24 +6421,27 @@
         <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="E2" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="F2" t="s">
-        <v>397</v>
-      </c>
-      <c r="G2" t="s">
-        <v>657</v>
+        <v>393</v>
+      </c>
+      <c r="G2" s="15">
+        <v>43402</v>
       </c>
       <c r="H2">
         <v>18000</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="15">
-        <v>9791188850327</v>
+      <c r="I2">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>643</v>
       </c>
       <c r="B3" t="s">
         <v>274</v>
@@ -6210,24 +6450,27 @@
         <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="E3" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="F3" t="s">
-        <v>433</v>
-      </c>
-      <c r="G3" t="s">
-        <v>658</v>
+        <v>444</v>
+      </c>
+      <c r="G3" s="15">
+        <v>43433</v>
       </c>
       <c r="H3">
         <v>14000</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="15">
-        <v>9791162540558</v>
+      <c r="I3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>644</v>
       </c>
       <c r="B4" t="s">
         <v>262</v>
@@ -6236,24 +6479,27 @@
         <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="E4" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="F4" t="s">
-        <v>400</v>
-      </c>
-      <c r="G4" t="s">
-        <v>659</v>
+        <v>378</v>
+      </c>
+      <c r="G4" s="15">
+        <v>43475</v>
       </c>
       <c r="H4">
         <v>15800</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="15">
-        <v>9791162540695</v>
+      <c r="I4">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>645</v>
       </c>
       <c r="B5" t="s">
         <v>231</v>
@@ -6262,24 +6508,27 @@
         <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="E5" t="s">
-        <v>210</v>
+        <v>286</v>
       </c>
       <c r="F5" t="s">
-        <v>436</v>
-      </c>
-      <c r="G5" t="s">
-        <v>660</v>
+        <v>390</v>
+      </c>
+      <c r="G5" s="15">
+        <v>43549</v>
       </c>
       <c r="H5">
         <v>15000</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="15">
-        <v>9791188850518</v>
+      <c r="I5">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>646</v>
       </c>
       <c r="B6" t="s">
         <v>215</v>
@@ -6288,18 +6537,27 @@
         <v>99</v>
       </c>
       <c r="D6" t="s">
-        <v>411</v>
-      </c>
-      <c r="G6" t="s">
-        <v>661</v>
+        <v>395</v>
+      </c>
+      <c r="E6" t="s">
+        <v>221</v>
+      </c>
+      <c r="F6" t="s">
+        <v>432</v>
+      </c>
+      <c r="G6" s="15">
+        <v>43565</v>
       </c>
       <c r="H6">
         <v>14000</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="15">
-        <v>9791188850303</v>
+      <c r="I6">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>647</v>
       </c>
       <c r="B7" t="s">
         <v>279</v>
@@ -6308,64 +6566,85 @@
         <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>426</v>
-      </c>
-      <c r="G7" t="s">
-        <v>662</v>
+        <v>410</v>
+      </c>
+      <c r="E7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F7" t="s">
+        <v>423</v>
+      </c>
+      <c r="G7" s="15">
+        <v>43427</v>
       </c>
       <c r="H7">
         <v>13500</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="15">
-        <v>9791188850501</v>
+      <c r="I7">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>648</v>
       </c>
       <c r="B8" t="s">
-        <v>218</v>
+        <v>268</v>
       </c>
       <c r="C8" t="s">
         <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>444</v>
-      </c>
-      <c r="G8" t="s">
-        <v>661</v>
+        <v>428</v>
+      </c>
+      <c r="E8" t="s">
+        <v>298</v>
+      </c>
+      <c r="F8" t="s">
+        <v>402</v>
+      </c>
+      <c r="G8" s="15">
+        <v>43454</v>
       </c>
       <c r="H8">
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="15">
-        <v>9791188850341</v>
+        <v>14800</v>
+      </c>
+      <c r="I8">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>649</v>
       </c>
       <c r="B9" t="s">
-        <v>268</v>
+        <v>218</v>
       </c>
       <c r="C9" t="s">
         <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E9" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="F9" t="s">
-        <v>445</v>
-      </c>
-      <c r="G9" t="s">
-        <v>663</v>
+        <v>393</v>
+      </c>
+      <c r="G9" s="15">
+        <v>43565</v>
       </c>
       <c r="H9">
-        <v>14800</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="15">
-        <v>9791162540527</v>
+        <v>14000</v>
+      </c>
+      <c r="I9">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>650</v>
       </c>
       <c r="B10" t="s">
         <v>271</v>
@@ -6374,24 +6653,27 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="E10" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="F10" t="s">
-        <v>415</v>
-      </c>
-      <c r="G10" t="s">
-        <v>664</v>
+        <v>414</v>
+      </c>
+      <c r="G10" s="15">
+        <v>43449</v>
       </c>
       <c r="H10">
         <v>13500</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="15">
-        <v>9791162540671</v>
+      <c r="I10">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>651</v>
       </c>
       <c r="B11" t="s">
         <v>233</v>
@@ -6400,18 +6682,27 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>456</v>
-      </c>
-      <c r="G11" t="s">
-        <v>665</v>
+        <v>440</v>
+      </c>
+      <c r="E11" t="s">
+        <v>302</v>
+      </c>
+      <c r="F11" t="s">
+        <v>462</v>
+      </c>
+      <c r="G11" s="15">
+        <v>43544</v>
       </c>
       <c r="H11">
         <v>13800</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="15">
-        <v>9791188850440</v>
+      <c r="I11">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>652</v>
       </c>
       <c r="B12" t="s">
         <v>236</v>
@@ -6420,18 +6711,27 @@
         <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>459</v>
-      </c>
-      <c r="G12" t="s">
-        <v>666</v>
+        <v>443</v>
+      </c>
+      <c r="E12" t="s">
+        <v>249</v>
+      </c>
+      <c r="F12" t="s">
+        <v>426</v>
+      </c>
+      <c r="G12" s="15">
+        <v>43539</v>
       </c>
       <c r="H12">
         <v>13800</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="15">
-        <v>9791162540718</v>
+      <c r="I12">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>653</v>
       </c>
       <c r="B13" t="s">
         <v>228</v>
@@ -6440,24 +6740,27 @@
         <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="E13" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="F13" t="s">
-        <v>388</v>
-      </c>
-      <c r="G13" t="s">
-        <v>667</v>
+        <v>405</v>
+      </c>
+      <c r="G13" s="15">
+        <v>43554</v>
       </c>
       <c r="H13">
         <v>13000</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="15">
-        <v>9791162540732</v>
+      <c r="I13">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>654</v>
       </c>
       <c r="B14" t="s">
         <v>226</v>
@@ -6466,24 +6769,27 @@
         <v>96</v>
       </c>
       <c r="D14" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="E14" t="s">
-        <v>257</v>
+        <v>303</v>
       </c>
       <c r="F14" t="s">
-        <v>445</v>
-      </c>
-      <c r="G14" t="s">
-        <v>668</v>
+        <v>465</v>
+      </c>
+      <c r="G14" s="15">
+        <v>43555</v>
       </c>
       <c r="H14">
         <v>22000</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="15">
-        <v>9791188850280</v>
+      <c r="I14">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>655</v>
       </c>
       <c r="B15" t="s">
         <v>282</v>
@@ -6492,18 +6798,27 @@
         <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>480</v>
-      </c>
-      <c r="G15" t="s">
-        <v>669</v>
+        <v>464</v>
+      </c>
+      <c r="E15" t="s">
+        <v>234</v>
+      </c>
+      <c r="F15" t="s">
+        <v>453</v>
+      </c>
+      <c r="G15" s="15">
+        <v>43419</v>
       </c>
       <c r="H15">
         <v>14800</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="15">
-        <v>9791188850549</v>
+      <c r="I15">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>656</v>
       </c>
       <c r="B16" t="s">
         <v>212</v>
@@ -6512,24 +6827,27 @@
         <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="E16" t="s">
-        <v>224</v>
+        <v>304</v>
       </c>
       <c r="F16" t="s">
-        <v>433</v>
-      </c>
-      <c r="G16" t="s">
-        <v>670</v>
+        <v>468</v>
+      </c>
+      <c r="G16" s="15">
+        <v>43566</v>
       </c>
       <c r="H16">
         <v>13000</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="15">
-        <v>9791188850266</v>
+      <c r="I16">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>657</v>
       </c>
       <c r="B17" t="s">
         <v>285</v>
@@ -6538,70 +6856,85 @@
         <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>498</v>
-      </c>
-      <c r="G17" t="s">
-        <v>671</v>
+        <v>482</v>
+      </c>
+      <c r="E17" t="s">
+        <v>275</v>
+      </c>
+      <c r="F17" t="s">
+        <v>423</v>
+      </c>
+      <c r="G17" s="15">
+        <v>43404</v>
       </c>
       <c r="H17">
         <v>14000</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="15">
-        <v>9791186805398</v>
+      <c r="I17">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>658</v>
       </c>
       <c r="B18" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="C18" t="s">
         <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="E18" t="s">
-        <v>300</v>
+        <v>254</v>
       </c>
       <c r="F18" t="s">
-        <v>463</v>
-      </c>
-      <c r="G18" t="s">
-        <v>672</v>
+        <v>405</v>
+      </c>
+      <c r="G18" s="15">
+        <v>43570</v>
       </c>
       <c r="H18">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="15">
-        <v>9791162540770</v>
+        <v>15000</v>
+      </c>
+      <c r="I18">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>659</v>
       </c>
       <c r="B19" t="s">
-        <v>209</v>
+        <v>245</v>
       </c>
       <c r="C19" t="s">
         <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="E19" t="s">
         <v>213</v>
       </c>
       <c r="F19" t="s">
-        <v>403</v>
-      </c>
-      <c r="G19" t="s">
-        <v>673</v>
+        <v>387</v>
+      </c>
+      <c r="G19" s="15">
+        <v>43516</v>
       </c>
       <c r="H19">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="15">
-        <v>9791162540619</v>
+        <v>16000</v>
+      </c>
+      <c r="I19">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>660</v>
       </c>
       <c r="B20" t="s">
         <v>248</v>
@@ -6610,18 +6943,27 @@
         <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>507</v>
-      </c>
-      <c r="G20" t="s">
-        <v>674</v>
+        <v>491</v>
+      </c>
+      <c r="E20" t="s">
+        <v>243</v>
+      </c>
+      <c r="F20" t="s">
+        <v>408</v>
+      </c>
+      <c r="G20" s="15">
+        <v>43511</v>
       </c>
       <c r="H20">
         <v>14000</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="15">
-        <v>9791162540640</v>
+      <c r="I20">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>661</v>
       </c>
       <c r="B21" t="s">
         <v>242</v>
@@ -6630,24 +6972,27 @@
         <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="E21" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="F21" t="s">
-        <v>466</v>
-      </c>
-      <c r="G21" t="s">
-        <v>675</v>
+        <v>402</v>
+      </c>
+      <c r="G21" s="15">
+        <v>43522</v>
       </c>
       <c r="H21">
         <v>16000</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="15">
-        <v>9791162540572</v>
+      <c r="I21">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>662</v>
       </c>
       <c r="B22" t="s">
         <v>259</v>
@@ -6656,18 +7001,27 @@
         <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>537</v>
-      </c>
-      <c r="G22" t="s">
-        <v>676</v>
+        <v>521</v>
+      </c>
+      <c r="E22" t="s">
+        <v>297</v>
+      </c>
+      <c r="F22" t="s">
+        <v>375</v>
+      </c>
+      <c r="G22" s="15">
+        <v>43483</v>
       </c>
       <c r="H22">
         <v>15000</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="15">
-        <v>9791188850389</v>
+      <c r="I22">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>663</v>
       </c>
       <c r="B23" t="s">
         <v>256</v>
@@ -6676,18 +7030,27 @@
         <v>78</v>
       </c>
       <c r="D23" t="s">
-        <v>540</v>
-      </c>
-      <c r="G23" t="s">
-        <v>677</v>
+        <v>524</v>
+      </c>
+      <c r="E23" t="s">
+        <v>246</v>
+      </c>
+      <c r="F23" t="s">
+        <v>393</v>
+      </c>
+      <c r="G23" s="15">
+        <v>43493</v>
       </c>
       <c r="H23">
         <v>13800</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="15">
-        <v>9791188850426</v>
+      <c r="I23">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>664</v>
       </c>
       <c r="B24" t="s">
         <v>239</v>
@@ -6696,64 +7059,85 @@
         <v>81</v>
       </c>
       <c r="D24" t="s">
-        <v>552</v>
-      </c>
-      <c r="G24" t="s">
-        <v>678</v>
+        <v>536</v>
+      </c>
+      <c r="E24" t="s">
+        <v>300</v>
+      </c>
+      <c r="F24" t="s">
+        <v>447</v>
+      </c>
+      <c r="G24" s="15">
+        <v>43523</v>
       </c>
       <c r="H24">
         <v>16800</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="15">
-        <v>9791188850471</v>
+      <c r="I24">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>665</v>
       </c>
       <c r="B25" t="s">
-        <v>223</v>
+        <v>288</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>570</v>
-      </c>
-      <c r="G25" t="s">
-        <v>661</v>
+        <v>554</v>
+      </c>
+      <c r="E25" t="s">
+        <v>234</v>
+      </c>
+      <c r="F25" t="s">
+        <v>453</v>
+      </c>
+      <c r="G25" s="15">
+        <v>43403</v>
       </c>
       <c r="H25">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="15">
-        <v>9791162540480</v>
+        <v>20000</v>
+      </c>
+      <c r="I25">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>666</v>
       </c>
       <c r="B26" t="s">
-        <v>288</v>
+        <v>223</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="E26" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="F26" t="s">
-        <v>472</v>
-      </c>
-      <c r="G26" t="s">
-        <v>679</v>
+        <v>393</v>
+      </c>
+      <c r="G26" s="15">
+        <v>43565</v>
       </c>
       <c r="H26">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="15">
-        <v>9791162540503</v>
+        <v>25000</v>
+      </c>
+      <c r="I26">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>667</v>
       </c>
       <c r="B27" t="s">
         <v>277</v>
@@ -6762,18 +7146,27 @@
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>579</v>
-      </c>
-      <c r="G27" t="s">
-        <v>680</v>
+        <v>563</v>
+      </c>
+      <c r="E27" t="s">
+        <v>266</v>
+      </c>
+      <c r="F27" t="s">
+        <v>396</v>
+      </c>
+      <c r="G27" s="15">
+        <v>43428</v>
       </c>
       <c r="H27">
         <v>16500</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="15">
-        <v>9791188850365</v>
+      <c r="I27">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>668</v>
       </c>
       <c r="B28" t="s">
         <v>265</v>
@@ -6782,18 +7175,27 @@
         <v>83</v>
       </c>
       <c r="D28" t="s">
-        <v>585</v>
-      </c>
-      <c r="G28" t="s">
-        <v>681</v>
+        <v>569</v>
+      </c>
+      <c r="E28" t="s">
+        <v>303</v>
+      </c>
+      <c r="F28" t="s">
+        <v>465</v>
+      </c>
+      <c r="G28" s="15">
+        <v>43459</v>
       </c>
       <c r="H28">
         <v>13500</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="15">
-        <v>9791188850402</v>
+      <c r="I28">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>669</v>
       </c>
       <c r="B29" t="s">
         <v>253</v>
@@ -6802,18 +7204,27 @@
         <v>51</v>
       </c>
       <c r="D29" t="s">
-        <v>588</v>
-      </c>
-      <c r="G29" t="s">
-        <v>682</v>
+        <v>572</v>
+      </c>
+      <c r="E29" t="s">
+        <v>216</v>
+      </c>
+      <c r="F29" t="s">
+        <v>444</v>
+      </c>
+      <c r="G29" s="15">
+        <v>43494</v>
       </c>
       <c r="H29">
         <v>13500</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="15">
-        <v>9791162540756</v>
+      <c r="I29">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>670</v>
       </c>
       <c r="B30" t="s">
         <v>220</v>
@@ -6822,39 +7233,51 @@
         <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>612</v>
-      </c>
-      <c r="G30" t="s">
-        <v>661</v>
+        <v>596</v>
+      </c>
+      <c r="E30" t="s">
+        <v>257</v>
+      </c>
+      <c r="F30" t="s">
+        <v>429</v>
+      </c>
+      <c r="G30" s="15">
+        <v>43565</v>
       </c>
       <c r="H30">
         <v>15000</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="15">
-        <v>9791162540596</v>
+      <c r="I30">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>671</v>
       </c>
       <c r="B31" t="s">
-        <v>683</v>
+        <v>641</v>
       </c>
       <c r="C31" t="s">
         <v>39</v>
       </c>
       <c r="D31" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="E31" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F31" t="s">
-        <v>394</v>
-      </c>
-      <c r="G31" t="s">
-        <v>684</v>
+        <v>372</v>
+      </c>
+      <c r="G31" s="15">
+        <v>43495</v>
       </c>
       <c r="H31">
         <v>18000</v>
+      </c>
+      <c r="I31">
+        <v>456</v>
       </c>
     </row>
   </sheetData>
